--- a/cui/data/components_lists/engine_list.xlsx
+++ b/cui/data/components_lists/engine_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>engine_id</t>
     <phoneticPr fontId="1"/>
@@ -74,6 +74,39 @@
   </si>
   <si>
     <t>BHP 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_rpm0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_bhp0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_rpm1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_bhp1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>specific_engine_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UEC80LSE-Eco-B1</t>
+  </si>
+  <si>
+    <t>UEC68LSE-Eco-1</t>
+  </si>
+  <si>
+    <t>UEC60LSE-Eco-B1</t>
+  </si>
+  <si>
+    <t>Hiekata</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -139,8 +172,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,16 +194,18 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -497,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -508,7 +545,7 @@
     <col min="1" max="10" width="32.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,155 +553,230 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
         <v>190.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-73.933300000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>49.333329999999997</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>53.3333333</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>35466.67</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>80</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>35520</v>
       </c>
+      <c r="L2" s="1">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30200</v>
+      </c>
+      <c r="N2" s="1">
+        <v>80</v>
+      </c>
+      <c r="O2" s="1">
+        <v>35520</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
         <v>191.6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>-73.933300000000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>49.333329999999997</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>-71.666659999999993</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>23591.67</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>95</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>23520</v>
       </c>
+      <c r="L3" s="1">
+        <v>71</v>
+      </c>
+      <c r="M3" s="1">
+        <v>17560</v>
+      </c>
+      <c r="N3" s="1">
+        <v>95</v>
+      </c>
+      <c r="O3" s="1">
+        <v>23520</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
         <v>192.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-73.933300000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>49.333329999999997</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>50.76923</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>19869.23</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>105</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>19920</v>
       </c>
+      <c r="L4" s="1">
+        <v>79</v>
+      </c>
+      <c r="M4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>105</v>
+      </c>
+      <c r="O4" s="1">
+        <v>19920</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
         <v>205.06</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-86.86</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>55</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>13682.77</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-55450.1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>68883.09</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>74</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
+        <v>27160</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1">
+        <v>23090</v>
+      </c>
+      <c r="N5" s="1">
+        <v>74</v>
+      </c>
+      <c r="O5" s="1">
         <v>27160</v>
       </c>
     </row>
